--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="CommonTestdata" sheetId="1" r:id="rId1"/>
     <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EdiMyinfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Sno</t>
   </si>
@@ -135,7 +135,37 @@
     <t>Login</t>
   </si>
   <si>
-    <t>EdiMyinfo</t>
+    <t>EdiMyinfo_1</t>
+  </si>
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>OtherID</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -166,7 +196,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,13 +253,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,7 +647,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,12 +834,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>